--- a/Appendix_1.xlsx
+++ b/Appendix_1.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pilar\Documents\ARTICULOS\ARTÍCULO CHAT GPT\Apendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3485D21-DAF9-400D-9FBC-8B4EA478DB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A16D630-B8D7-4FBB-AB47-320FE000F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B52EC7A6-A0BF-4AE1-AAB7-8A2E1D1E0B6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52EC7A6-A0BF-4AE1-AAB7-8A2E1D1E0B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="dat_classified_with_categories" sheetId="1" r:id="rId1"/>
-    <sheet name="Sankey_Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="259">
   <si>
     <t>Abst</t>
   </si>
@@ -798,67 +797,13 @@
   </si>
   <si>
     <t>Study</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>node</t>
-  </si>
-  <si>
-    <t>next_x</t>
-  </si>
-  <si>
-    <t>next_node</t>
-  </si>
-  <si>
-    <t>Generative_artificial_intelligence</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>AI_artificial_intelligence</t>
-  </si>
-  <si>
-    <t>Academic_Integrity_and_Ethics</t>
-  </si>
-  <si>
-    <t>Factors_influencing_ChatGPT_</t>
-  </si>
-  <si>
-    <t>Skills_development</t>
-  </si>
-  <si>
-    <t>Technology_acceptance_model_</t>
-  </si>
-  <si>
-    <t>Adoption_and_use_ChatGPT</t>
-  </si>
-  <si>
-    <t>Perception_usefulness</t>
-  </si>
-  <si>
-    <t>Generative_artificial_intelligence_</t>
-  </si>
-  <si>
-    <t>Use__ChatGPT_as_a_Mediating_Tool</t>
-  </si>
-  <si>
-    <t>Perception_Utility</t>
-  </si>
-  <si>
-    <t>Factors_influencing_ChatGPT</t>
-  </si>
-  <si>
-    <t>Perception_implications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,11 +937,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1340,12 +1280,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1723,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AD03C7-BF56-4DD0-B368-32FDEA2909BA}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
@@ -3510,1802 +3446,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846181F-83C9-4FEA-B567-9A76A9744B01}">
-  <dimension ref="A1:D127"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D26" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D32" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D38" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D39" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D42" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D43" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D50" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D52" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D54" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D57" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D58" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D61" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D65" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D67" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D69" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D72" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D73" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D74" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D76" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D77" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D78" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D81" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D82" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D89" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D93" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D94" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D95" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D97" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D98" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D99" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D100" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D101" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B102">
-        <v>4</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D102" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D103" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D104" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D105" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D106" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D107" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D108" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109">
-        <v>4</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D109" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D110" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D111" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D112" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B114">
-        <v>4</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D114" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B116">
-        <v>4</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D116" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D117" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D118" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D119" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D120" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B121">
-        <v>4</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D121" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D122" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D123" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B125">
-        <v>3</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D125" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D126" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D127" s="2">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>